--- a/ProductManager/Template/StatisticsTemplate.xlsx
+++ b/ProductManager/Template/StatisticsTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\softwareDeveloper\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Visual Studio 2017\Projects\ProductManager\ProductManager\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,9 +112,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -197,9 +196,6 @@
     <xf numFmtId="39" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -215,7 +211,7 @@
     <xf numFmtId="39" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -229,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +565,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:V24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -594,187 +593,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="8" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="1:22" s="6" customFormat="1">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="1:22" s="5" customFormat="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -792,13 +791,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -816,13 +815,13 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1191,27 +1190,27 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1"/>
@@ -1243,6 +1242,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="A1:V1"/>
@@ -1259,13 +1265,6 @@
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProductManager/Template/StatisticsTemplate.xlsx
+++ b/ProductManager/Template/StatisticsTemplate.xlsx
@@ -112,9 +112,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -180,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,43 +187,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +559,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G6" sqref="A1:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -593,192 +587,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="12" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="7" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" s="5" customFormat="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1"/>
@@ -791,13 +799,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -815,13 +823,13 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1190,27 +1198,27 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1"/>
@@ -1242,15 +1250,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:Q3"/>
@@ -1265,6 +1264,15 @@
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProductManager/Template/StatisticsTemplate.xlsx
+++ b/ProductManager/Template/StatisticsTemplate.xlsx
@@ -177,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,29 +199,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,26 +561,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:V6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="18.375" customWidth="1"/>
     <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="26.875" customWidth="1"/>
     <col min="16" max="16" width="17.125" customWidth="1"/>
     <col min="17" max="17" width="14.375" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
@@ -587,182 +591,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="10" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="6"/>
@@ -775,13 +779,13 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1266,13 +1270,13 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="T3:T5"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProductManager/Template/StatisticsTemplate.xlsx
+++ b/ProductManager/Template/StatisticsTemplate.xlsx
@@ -129,7 +129,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,43 +237,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -197,68 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +257,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -287,12 +287,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,7 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,12 +365,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,7 +383,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,55 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,18 +461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,30 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,6 +546,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,65 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,12 +1158,12 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A2" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
@@ -1217,14 +1217,6 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
